--- a/xlsx/美国空军_intext.xlsx
+++ b/xlsx/美国空军_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1031">
   <si>
     <t>美国空军</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%88%AA%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍航空軍</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国空军</t>
+    <t>美国陆军航空军</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%8E%A5%E6%94%AF%E6%8F%B4</t>
@@ -53,49 +53,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>彈道飛彈</t>
+    <t>弹道飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%88%B0</t>
   </si>
   <si>
-    <t>韓戰</t>
+    <t>韩战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波灣戰爭</t>
+    <t>波湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>阿富汗戰爭</t>
+    <t>阿富汗战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國空軍部長</t>
+    <t>美国空军部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%E5%B0%94%C2%B7%E5%94%90%E5%88%A9</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%88%AA%E7%A9%BA%E5%85%B5%E5%9C%98</t>
   </si>
   <si>
-    <t>美國陸軍航空兵團</t>
+    <t>美国陆军航空兵团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/B-17%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-17轟炸機</t>
+    <t>B-17轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/P-51%E9%87%8E%E9%A6%AC%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-51野馬戰鬥機</t>
+    <t>P-51野马战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/B-29%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-29轟炸機</t>
+    <t>B-29轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%A4%A7%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>東京大空襲</t>
+    <t>东京大空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%B2%9B</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%B5%A6%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>金浦機場</t>
+    <t>金浦机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%9C%E5%B1%B1</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC-15%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>米格-15戰鬥機</t>
+    <t>米格-15战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-86%E4%BD%A9%E5%88%80%E6%88%98%E6%96%97%E6%9C%BA</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E5%AE%98%E6%A0%A1</t>
   </si>
   <si>
-    <t>美國空軍官校</t>
+    <t>美国空军官校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B3%89</t>
   </si>
   <si>
-    <t>科羅拉多泉</t>
+    <t>科罗拉多泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E8%88%AA%E7%A9%BA%E5%85%B5</t>
   </si>
   <si>
-    <t>海軍航空兵</t>
+    <t>海军航空兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>國民警衛隊</t>
+    <t>国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
   </si>
   <si>
-    <t>美國空軍部</t>
+    <t>美国空军部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B%E4%B8%80%E7%BA%A7%E5%8F%B8%E4%BB%A4%E9%83%A8%E5%88%97%E8%A1%A8</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E4%B8%80%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第一航空隊</t>
+    <t>美国第一航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E4%B9%9D%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第九航空隊</t>
+    <t>美国第九航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E8%8E%B1%E9%82%A3%E5%B7%9E</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%8D%81%E4%BA%8C%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第十二航空隊</t>
+    <t>美国第十二航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞歷桑那州</t>
+    <t>亚历桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%E6%96%AF%EF%BC%8D%E8%92%99%E6%A3%AE%E7%A9%BA%E5%86%9B%E5%9F%BA%E5%9C%B0</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%8B%92%E6%96%AF%E7%A9%BA%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>內勒斯空軍基地</t>
+    <t>内勒斯空军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B%E6%95%99%E8%82%B2%E8%AE%AD%E7%BB%83%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%E8%81%94%E5%90%88%E5%9F%BA%E5%9C%B0</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E4%BA%8C%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第二航空隊</t>
+    <t>美国第二航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -659,25 +659,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%8D%81%E4%B9%9D%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第十九航空隊</t>
+    <t>美国第十九航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國空軍大學</t>
+    <t>美国空军大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿拉巴馬州</t>
+    <t>阿拉巴马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%96%AF%E7%B6%AD%E7%88%BE%E7%A9%BA%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>麥斯維爾空軍基地</t>
+    <t>麦斯维尔空军基地</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/59th_Medical_Wing</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%85%AB%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第八航空隊</t>
+    <t>美国第八航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E4%BA%8C%E5%8D%81%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第二十航空隊</t>
+    <t>美国第二十航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%8D%B7%E5%8D%8E%E5%B7%9E</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Scott_Air_Force_Base</t>
@@ -833,9 +833,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%A0%BC%E6%9E%97%E7%A9%BA%E5%86%9B%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Arnold_Air_Force_Base</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hanscom_Air_Force_Base</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%9B%9B%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第四航空隊</t>
+    <t>美国第四航空队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/March_Air_Reserve_Base</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%8D%81%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第十航空隊</t>
+    <t>美国第十航空队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Naval_Air_Station_Joint_Reserve_Base_Fort_Worth</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%8C%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第二十二航空隊</t>
+    <t>美国第二十二航空队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dobbins_Air_Reserve_Base</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Buckley_Air_Force_Base</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E5%A4%AA%E7%A9%BA%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國空軍太空司令部</t>
+    <t>美国空军太空司令部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peterson_Air_Force_Base</t>
@@ -959,19 +956,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%8D%81%E5%9B%9B%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第十四航空隊</t>
+    <t>美国第十四航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%99%BB%E5%A0%A1%E7%A9%BA%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>范登堡空軍基地</t>
+    <t>范登堡空军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第二十四航空隊</t>
+    <t>美国第二十四航空队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Space_and_Missile_Systems_Center</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新澤西州</t>
+    <t>新泽西州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joint_Base_McGuire-Dix-Lakehurst</t>
@@ -1049,19 +1046,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A7%86%E6%96%BD%E6%B3%B0%E5%9B%A0%E7%A9%BA%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>拉姆施泰因空軍基地</t>
+    <t>拉姆施泰因空军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E4%B8%89%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第三航空隊</t>
+    <t>美国第三航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%A9%BA%E5%86%9B</t>
@@ -1079,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF-%E5%B8%8C%E5%8D%A1%E5%A7%86%E8%81%AF%E5%90%88%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>珍珠港-希卡姆聯合基地</t>
+    <t>珍珠港-希卡姆联合基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E4%BA%94%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第五航空隊</t>
+    <t>美国第五航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -1103,15 +1097,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E4%B8%83%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第七航空隊</t>
+    <t>美国第七航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B1%B1%E7%A9%BA%E5%86%9B%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
@@ -1121,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%8D%81%E4%B8%80%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第十一航空隊</t>
+    <t>美国第十一航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
@@ -1157,13 +1148,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%E6%96%AF%E8%81%AF%E5%90%88%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>安德魯斯聯合基地</t>
+    <t>安德鲁斯联合基地</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/I.G._Brown_Air_National_Guard_Training_and_Education_Center</t>
@@ -1181,9 +1172,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/F-15E</t>
   </si>
   <si>
@@ -1205,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/B-52%E5%90%8C%E6%BA%AB%E5%B1%A4%E5%A0%A1%E5%A3%98%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-52同溫層堡壘轟炸機</t>
+    <t>B-52同温层堡垒轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
@@ -1229,19 +1217,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9</t>
   </si>
   <si>
-    <t>沖繩</t>
+    <t>冲绳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15%E9%B7%B9%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-15鷹式戰鬥機</t>
+    <t>F-15鹰式战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-22%E7%8C%9B%E7%A6%BD%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-22猛禽戰鬥機</t>
+    <t>F-22猛禽战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E5%8D%AB%E6%98%9F</t>
@@ -1259,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/B-1%E6%A7%8D%E9%A8%8E%E5%85%B5%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-1槍騎兵戰略轟炸機</t>
+    <t>B-1枪骑兵战略轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AFDC-10</t>
@@ -1271,9 +1259,6 @@
     <t>https://zh.wikipedia.org/wiki/C-17%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>C-17運輸機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
@@ -1289,13 +1274,13 @@
     <t>https://zh.wikipedia.org/wiki/C-130%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>C-130運輸機</t>
+    <t>C-130运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A-10%E9%9B%B7%E9%9B%BBII%E7%96%A3%E8%B1%AC%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>A-10雷電II疣豬攻擊機</t>
+    <t>A-10雷电II疣猪攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E6%A3%AE%E7%A9%BA%E5%86%9B%E5%9F%BA%E5%9C%B0</t>
@@ -1307,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Incirlik_Air_Base</t>
@@ -1331,9 +1316,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿拉巴马州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
   </si>
   <si>
@@ -1343,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/C-5%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>C-5運輸機</t>
+    <t>C-5运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E</t>
@@ -1367,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/E-3%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>E-3空中預警機</t>
+    <t>E-3空中预警机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%88%A9%E6%96%AF%E7%A9%BA%E5%86%9B%E5%9F%BA%E5%9C%B0</t>
@@ -1379,9 +1361,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>内华达州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -1469,7 +1448,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>空軍一號</t>
+    <t>空军一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AC-130%E7%A9%BA%E4%B8%AD%E7%A0%B2%E8%89%87</t>
@@ -1529,13 +1508,13 @@
     <t>https://zh.wikipedia.org/wiki/CH-53E%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>CH-53E直升機</t>
+    <t>CH-53E直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E9%B7%B9</t>
   </si>
   <si>
-    <t>全球鷹</t>
+    <t>全球鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MQ-9</t>
@@ -1547,13 +1526,13 @@
     <t>https://zh.wikipedia.org/wiki/T-6%E5%BE%B7%E5%B7%9E%E4%BD%AC%E5%BC%8F%E6%95%99%E7%B7%B4%E6%A9%9F</t>
   </si>
   <si>
-    <t>T-6德州佬式教練機</t>
+    <t>T-6德州佬式教练机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T-37%E9%B3%B4%E9%B3%A5%E5%BC%8F%E6%95%99%E7%B7%B4%E6%A9%9F</t>
   </si>
   <si>
-    <t>T-37鳴鳥式教練機</t>
+    <t>T-37鸣鸟式教练机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T-38%E6%95%99%E7%BB%83%E6%9C%BA</t>
@@ -1565,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/UH-1N%E9%9B%99%E4%BC%91%E4%BC%8A%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>UH-1N雙休伊直升機</t>
+    <t>UH-1N双休伊直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U-2</t>
@@ -1583,13 +1562,13 @@
     <t>https://zh.wikipedia.org/wiki/A-10%E9%9B%B7%E9%9C%86%E4%BA%8C%E5%BC%8F%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>A-10雷霆二式攻擊機</t>
+    <t>A-10雷霆二式攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-16%E6%88%B0%E9%9A%BC%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-16戰隼戰鬥機</t>
+    <t>F-16战隼战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MQ-1</t>
@@ -1601,7 +1580,7 @@
     <t>https://zh.wikipedia.org/wiki/F-35%E9%96%83%E9%9B%BBII%E6%94%BB%E6%93%8A%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-35閃電II攻擊戰鬥機</t>
+    <t>F-35闪电II攻击战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E-3</t>
@@ -1613,37 +1592,37 @@
     <t>https://zh.wikipedia.org/wiki/MH-53%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>MH-53直升機</t>
+    <t>MH-53直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U-2%E5%81%B5%E5%AF%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>U-2偵察機</t>
+    <t>U-2侦察机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15E%E6%89%93%E6%93%8A%E9%B7%B9%E5%BC%8F%E6%88%B0%E9%AC%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-15E打擊鷹式戰鬥轟炸機</t>
+    <t>F-15E打击鹰式战斗轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E4%BF%9D%E5%AE%89%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國空軍保安部隊</t>
+    <t>美国空军保安部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D%E5%BE%8C%E7%87%83%E5%99%A8%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>空軍後燃器車隊</t>
+    <t>空军后燃器车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%97%97%E6%BC%94%E7%BF%92</t>
   </si>
   <si>
-    <t>紅旗演習</t>
+    <t>红旗演习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
@@ -1661,37 +1640,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>阿根廷空軍</t>
+    <t>阿根廷空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>巴西空軍</t>
+    <t>巴西空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>加拿大空軍</t>
+    <t>加拿大空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>委內瑞拉空軍</t>
+    <t>委内瑞拉空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E7%A9%BA%E5%86%9B</t>
@@ -1739,9 +1718,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B%E5%A4%AA%E7%A9%BA%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美国空军太空司令部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A9%BB%E6%AC%A7%E7%A9%BA%E5%86%9B</t>
   </si>
   <si>
@@ -1751,27 +1727,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E8%99%9F%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>編號航空隊</t>
+    <t>编号航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E4%B8%89%E8%88%AA%E7%A9%BA%E9%98%9F</t>
   </si>
   <si>
-    <t>美国第三航空队</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E5%9B%9B%E8%88%AA%E7%A9%BA%E9%98%9F</t>
   </si>
   <si>
-    <t>美国第四航空队</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E4%BA%94%E8%88%AA%E7%A9%BA%E9%98%9F</t>
   </si>
   <si>
-    <t>美国第五航空队</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Sixth_Air_Force</t>
   </si>
   <si>
@@ -1781,13 +1748,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E5%8D%81%E4%B8%80%E8%88%AA%E7%A9%BA%E9%98%9F</t>
   </si>
   <si>
-    <t>美国第十一航空队</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%8D%81%E4%B8%89%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第十三航空隊</t>
+    <t>美国第十三航空队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Seventeenth_Air_Force</t>
@@ -1799,13 +1763,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%8D%81%E5%85%AB%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第十八航空隊</t>
+    <t>美国第十八航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第二十三航空隊</t>
+    <t>美国第二十三航空队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/15th_Expeditionary_Mobility_Task_Force</t>
@@ -1817,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E7%AC%AC16%E8%88%AA%E7%A9%BA%E9%81%A0%E5%BE%81%E7%89%B9%E9%81%A3%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國空軍第16航空遠征特遣隊</t>
+    <t>美国空军第16航空远征特遣队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/21st_Expeditionary_Mobility_Task_Force</t>
@@ -1859,9 +1823,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E5%86%9B%E4%B8%80%E5%8F%B7</t>
   </si>
   <si>
-    <t>空军一号</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B%E9%9B%B7%E9%B8%9F%E9%A3%9E%E8%A1%8C%E8%A1%A8%E6%BC%94%E9%98%9F</t>
   </si>
   <si>
@@ -1871,13 +1832,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
   </si>
   <si>
-    <t>美国军事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>美利堅合眾國軍</t>
+    <t>美利坚合众国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -1901,13 +1859,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AC%80%E9%95%B7%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>美國參謀長聯席會議</t>
+    <t>美国参谋长联席会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AC%80%E9%95%B7%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>美國參謀長聯席會議主席</t>
+    <t>美国参谋长联席会议主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8E%B0%E5%BD%B9%E4%B8%8A%E5%B0%86%E5%88%97%E8%A1%A8</t>
@@ -1925,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/1947%E5%B9%B4%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1947年國家安全法案</t>
+    <t>1947年国家安全法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%BE%B7%E5%8D%8E%E7%89%B9%EF%BC%8D%E5%B0%BC%E7%A7%91%E5%B0%94%E6%96%AF%E5%9B%BD%E9%98%B2%E9%83%A8%E9%87%8D%E6%9E%84%E6%B3%95%E6%A1%88</t>
@@ -1937,15 +1895,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E9%9A%8A%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國軍隊結構</t>
+    <t>美国军队结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美国国防部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
   </si>
   <si>
@@ -2051,7 +2006,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8%E7%AC%AC10%E5%8D%B7</t>
   </si>
   <si>
-    <t>美國法典第10卷</t>
+    <t>美国法典第10卷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A5%BC</t>
@@ -2069,7 +2024,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%A4%96%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐外美軍</t>
+    <t>驻外美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -2093,7 +2048,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B5%E8%A8%93%E7%B7%B4</t>
   </si>
   <si>
-    <t>新兵訓練</t>
+    <t>新兵训练</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Marine_Corps_Recruit_Training</t>
@@ -2243,7 +2198,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E7%BC%BA%E4%BA%BA%E6%89%8D%E5%BE%81%E5%85%B5%E8%AE%A1%E5%88%92</t>
@@ -2273,7 +2228,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -2297,7 +2252,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -2339,7 +2294,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -2351,7 +2306,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -2375,7 +2330,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -2411,7 +2366,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -2447,7 +2402,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
@@ -2471,7 +2426,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -2513,13 +2468,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -2531,13 +2486,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -2561,7 +2516,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -2603,7 +2558,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -2615,7 +2570,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -2651,7 +2606,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -2663,13 +2618,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -2681,13 +2636,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -2699,13 +2654,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -2753,7 +2708,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -2765,13 +2720,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -2783,7 +2738,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -2795,7 +2750,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -2807,13 +2762,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -2837,7 +2792,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -2909,15 +2864,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -2927,7 +2879,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -2981,7 +2933,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -3017,7 +2969,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -3035,7 +2987,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -3071,19 +3023,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -3095,7 +3047,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -3113,7 +3065,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3131,7 +3083,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3149,7 +3101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -7499,7 +7451,7 @@
         <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7525,10 +7477,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7554,10 +7506,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7583,10 +7535,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7612,10 +7564,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7641,10 +7593,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7670,10 +7622,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7699,10 +7651,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7728,10 +7680,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7757,10 +7709,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7786,10 +7738,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7815,10 +7767,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7844,10 +7796,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7873,10 +7825,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7902,10 +7854,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7931,10 +7883,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7960,10 +7912,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7989,10 +7941,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -8018,10 +7970,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8047,10 +7999,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8076,10 +8028,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8105,10 +8057,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8134,10 +8086,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -8163,10 +8115,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8192,10 +8144,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8221,10 +8173,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8250,10 +8202,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8279,10 +8231,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8308,10 +8260,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8337,10 +8289,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -8366,10 +8318,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" t="s">
         <v>331</v>
-      </c>
-      <c r="F168" t="s">
-        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8395,10 +8347,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
         <v>333</v>
-      </c>
-      <c r="F169" t="s">
-        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8424,10 +8376,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
         <v>335</v>
-      </c>
-      <c r="F170" t="s">
-        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8453,10 +8405,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
         <v>337</v>
-      </c>
-      <c r="F171" t="s">
-        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8482,10 +8434,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
         <v>339</v>
-      </c>
-      <c r="F172" t="s">
-        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8511,10 +8463,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>340</v>
+      </c>
+      <c r="F173" t="s">
         <v>341</v>
-      </c>
-      <c r="F173" t="s">
-        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8540,10 +8492,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>74</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8569,10 +8521,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8598,10 +8550,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8627,10 +8579,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8656,10 +8608,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8685,10 +8637,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8714,10 +8666,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8743,10 +8695,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>7</v>
@@ -8772,10 +8724,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8801,10 +8753,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8830,10 +8782,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>112</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8859,10 +8811,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8888,10 +8840,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8917,10 +8869,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8946,10 +8898,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8975,10 +8927,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G189" t="n">
         <v>4</v>
@@ -9004,10 +8956,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -9033,10 +8985,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9062,10 +9014,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9091,10 +9043,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9120,10 +9072,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9149,10 +9101,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9178,10 +9130,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -9207,10 +9159,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -9236,10 +9188,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9265,10 +9217,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>64</v>
@@ -9294,10 +9246,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -9323,10 +9275,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -9352,10 +9304,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -9381,10 +9333,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9410,10 +9362,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9439,10 +9391,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -9468,10 +9420,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9497,10 +9449,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9526,10 +9478,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9555,10 +9507,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9584,10 +9536,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -9613,10 +9565,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -9642,10 +9594,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9671,10 +9623,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9700,10 +9652,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -9729,10 +9681,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -9758,10 +9710,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9787,10 +9739,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9816,10 +9768,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9845,10 +9797,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9874,10 +9826,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9903,10 +9855,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9932,10 +9884,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>218</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9961,10 +9913,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9990,10 +9942,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10019,10 +9971,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10048,10 +10000,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -10077,10 +10029,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -10106,10 +10058,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10135,10 +10087,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -10164,10 +10116,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>198</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -10193,10 +10145,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10222,10 +10174,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10251,10 +10203,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10280,10 +10232,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10309,10 +10261,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10338,10 +10290,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10367,10 +10319,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10396,10 +10348,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10425,10 +10377,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10454,10 +10406,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10512,10 +10464,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10541,10 +10493,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10570,10 +10522,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10599,10 +10551,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10628,10 +10580,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10657,10 +10609,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F247" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10686,10 +10638,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10715,10 +10667,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F249" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10744,10 +10696,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F250" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10773,10 +10725,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F251" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10802,10 +10754,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F252" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10831,10 +10783,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10860,10 +10812,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10889,10 +10841,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F255" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10918,10 +10870,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10947,10 +10899,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F257" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10976,10 +10928,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11005,10 +10957,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11034,10 +10986,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11063,10 +11015,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11092,10 +11044,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11121,10 +11073,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11150,10 +11102,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F264" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11179,10 +11131,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11208,10 +11160,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11237,10 +11189,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11266,10 +11218,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F268" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11295,10 +11247,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11324,10 +11276,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11353,10 +11305,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11382,10 +11334,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11411,10 +11363,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11440,10 +11392,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11469,10 +11421,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11498,10 +11450,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F276" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11527,10 +11479,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F277" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11556,10 +11508,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F278" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11585,10 +11537,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F279" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11614,10 +11566,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F280" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11643,10 +11595,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F281" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11672,10 +11624,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F282" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11701,10 +11653,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F283" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11730,10 +11682,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F284" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11759,10 +11711,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F285" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11788,10 +11740,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F286" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11817,10 +11769,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F287" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11846,10 +11798,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F288" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11875,10 +11827,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F289" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11904,10 +11856,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F290" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G290" t="n">
         <v>6</v>
@@ -11933,10 +11885,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F291" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11962,10 +11914,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F292" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11991,10 +11943,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F293" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12020,10 +11972,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F294" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12049,10 +12001,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F295" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12078,10 +12030,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F296" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12107,10 +12059,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F297" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12136,10 +12088,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F298" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12165,10 +12117,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F299" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12252,10 +12204,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F302" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G302" t="n">
         <v>4</v>
@@ -12281,10 +12233,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F303" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12310,10 +12262,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F304" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -12339,10 +12291,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F305" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12368,10 +12320,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>286</v>
+      </c>
+      <c r="F306" t="s">
         <v>287</v>
-      </c>
-      <c r="F306" t="s">
-        <v>288</v>
       </c>
       <c r="G306" t="n">
         <v>5</v>
@@ -12397,10 +12349,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G307" t="n">
         <v>12</v>
@@ -12426,10 +12378,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F308" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -12513,10 +12465,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>332</v>
+      </c>
+      <c r="F311" t="s">
         <v>333</v>
-      </c>
-      <c r="F311" t="s">
-        <v>334</v>
       </c>
       <c r="G311" t="n">
         <v>17</v>
@@ -12600,10 +12552,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F314" t="s">
-        <v>574</v>
+        <v>309</v>
       </c>
       <c r="G314" t="n">
         <v>5</v>
@@ -12629,10 +12581,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>330</v>
+      </c>
+      <c r="F315" t="s">
         <v>331</v>
-      </c>
-      <c r="F315" t="s">
-        <v>332</v>
       </c>
       <c r="G315" t="n">
         <v>3</v>
@@ -12658,10 +12610,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F316" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12687,10 +12639,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F317" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G317" t="n">
         <v>7</v>
@@ -12716,10 +12668,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F318" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12803,10 +12755,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F321" t="s">
-        <v>580</v>
+        <v>346</v>
       </c>
       <c r="G321" t="n">
         <v>4</v>
@@ -12832,10 +12784,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F322" t="s">
-        <v>582</v>
+        <v>293</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12861,10 +12813,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F323" t="s">
-        <v>584</v>
+        <v>354</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12890,10 +12842,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F324" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12919,10 +12871,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F325" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -13006,10 +12958,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>296</v>
+      </c>
+      <c r="F328" t="s">
         <v>297</v>
-      </c>
-      <c r="F328" t="s">
-        <v>298</v>
       </c>
       <c r="G328" t="n">
         <v>14</v>
@@ -13035,10 +12987,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F329" t="s">
-        <v>588</v>
+        <v>365</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -13093,10 +13045,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F331" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13122,10 +13074,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>312</v>
+      </c>
+      <c r="F332" t="s">
         <v>313</v>
-      </c>
-      <c r="F332" t="s">
-        <v>314</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -13151,10 +13103,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F333" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13180,10 +13132,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F334" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -13267,10 +13219,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>300</v>
+      </c>
+      <c r="F337" t="s">
         <v>301</v>
-      </c>
-      <c r="F337" t="s">
-        <v>302</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -13296,10 +13248,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F338" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13325,10 +13277,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>316</v>
+      </c>
+      <c r="F339" t="s">
         <v>317</v>
-      </c>
-      <c r="F339" t="s">
-        <v>318</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -13354,10 +13306,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F340" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13383,10 +13335,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F341" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13412,10 +13364,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F342" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13441,10 +13393,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F343" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13470,10 +13422,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F344" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13499,10 +13451,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F345" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13528,10 +13480,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F346" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13615,10 +13567,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F349" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13644,10 +13596,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F350" t="s">
-        <v>614</v>
+        <v>477</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13673,10 +13625,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="F351" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13702,10 +13654,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F352" t="s">
-        <v>618</v>
+        <v>156</v>
       </c>
       <c r="G352" t="n">
         <v>3</v>
@@ -13731,10 +13683,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F353" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13760,10 +13712,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F354" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13789,10 +13741,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="F355" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13818,10 +13770,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="F356" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13847,10 +13799,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F357" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13876,10 +13828,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="F358" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13905,10 +13857,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="F359" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13934,10 +13886,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="F360" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13963,10 +13915,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F361" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13992,10 +13944,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="F362" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14021,10 +13973,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F363" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14050,10 +14002,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="F364" t="s">
-        <v>642</v>
+        <v>8</v>
       </c>
       <c r="G364" t="n">
         <v>5</v>
@@ -14079,10 +14031,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="F365" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G365" t="n">
         <v>10</v>
@@ -14108,10 +14060,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="F366" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14137,10 +14089,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="F367" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14195,10 +14147,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="F369" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14311,10 +14263,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="F373" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="G373" t="n">
         <v>112</v>
@@ -14369,10 +14321,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="F375" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14398,10 +14350,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="F376" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14427,10 +14379,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="F377" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="G377" t="n">
         <v>5</v>
@@ -14456,10 +14408,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="F378" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="G378" t="n">
         <v>62</v>
@@ -14485,10 +14437,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F379" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G379" t="n">
         <v>396</v>
@@ -14514,10 +14466,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="F380" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14543,10 +14495,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F381" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14572,10 +14524,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="F382" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="G382" t="n">
         <v>3</v>
@@ -14601,10 +14553,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F383" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14630,10 +14582,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="F384" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14659,10 +14611,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="F385" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14688,10 +14640,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="F386" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="G386" t="n">
         <v>7</v>
@@ -14717,10 +14669,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="F387" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="G387" t="n">
         <v>13</v>
@@ -14746,10 +14698,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="F388" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14775,10 +14727,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="F389" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14804,10 +14756,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="F390" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14833,10 +14785,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="F391" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="G391" t="n">
         <v>20</v>
@@ -14862,10 +14814,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="F392" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14891,10 +14843,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="F393" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14920,10 +14872,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="F394" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14949,10 +14901,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="F395" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14978,10 +14930,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="F396" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15007,10 +14959,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="F397" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15036,10 +14988,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="F398" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15065,10 +15017,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="F399" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15094,10 +15046,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="F400" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15123,10 +15075,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F401" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15152,10 +15104,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F402" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="G402" t="n">
         <v>77</v>
@@ -15181,10 +15133,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="F403" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15210,10 +15162,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="F404" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15239,10 +15191,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F405" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="G405" t="n">
         <v>18</v>
@@ -15268,10 +15220,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="F406" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15297,10 +15249,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F407" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15326,10 +15278,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="F408" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15355,10 +15307,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="F409" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -15384,10 +15336,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="F410" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15413,10 +15365,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="F411" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15442,10 +15394,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="F412" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15471,10 +15423,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="F413" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15500,10 +15452,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="F414" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15529,10 +15481,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="F415" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15558,10 +15510,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="F416" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15587,10 +15539,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="F417" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15616,10 +15568,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="F418" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15645,10 +15597,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="F419" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15674,10 +15626,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="F420" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15703,10 +15655,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="F421" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15732,10 +15684,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="F422" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15761,10 +15713,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="F423" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15790,10 +15742,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="F424" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="G424" t="n">
         <v>10</v>
@@ -15819,10 +15771,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="F425" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15848,10 +15800,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F426" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15877,10 +15829,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="F427" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15906,10 +15858,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="F428" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15935,10 +15887,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="F429" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15964,10 +15916,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="F430" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15993,10 +15945,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="F431" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16022,10 +15974,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="F432" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16051,10 +16003,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="F433" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16080,10 +16032,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="F434" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16109,10 +16061,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="F435" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16138,10 +16090,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="F436" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16167,10 +16119,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="F437" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16196,10 +16148,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="F438" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16225,10 +16177,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="F439" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16254,10 +16206,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="F440" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16283,10 +16235,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="F441" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16312,10 +16264,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="F442" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16341,10 +16293,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F443" t="s">
-        <v>618</v>
+        <v>156</v>
       </c>
       <c r="G443" t="n">
         <v>17</v>
@@ -16370,10 +16322,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="F444" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16399,10 +16351,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="F445" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16428,10 +16380,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="F446" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16457,10 +16409,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="F447" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -16486,10 +16438,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="F448" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16515,10 +16467,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="F449" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16544,10 +16496,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="F450" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16573,10 +16525,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="F451" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16602,10 +16554,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F452" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16631,10 +16583,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="F453" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G453" t="n">
         <v>3</v>
@@ -16660,10 +16612,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="F454" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="G454" t="n">
         <v>3</v>
@@ -16689,10 +16641,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="F455" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16718,10 +16670,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="F456" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16747,10 +16699,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F457" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G457" t="n">
         <v>3</v>
@@ -16776,10 +16728,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="F458" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16805,10 +16757,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="F459" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16834,10 +16786,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="F460" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16863,10 +16815,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="F461" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16892,10 +16844,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="F462" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16921,10 +16873,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="F463" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16950,10 +16902,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="F464" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16979,10 +16931,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="F465" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17008,10 +16960,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="F466" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17037,10 +16989,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="F467" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17066,10 +17018,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="F468" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="G468" t="n">
         <v>4</v>
@@ -17095,10 +17047,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="F469" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17124,10 +17076,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="F470" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17153,10 +17105,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="F471" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17182,10 +17134,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="F472" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17211,10 +17163,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="F473" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17240,10 +17192,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="F474" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17269,10 +17221,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="F475" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="G475" t="n">
         <v>4</v>
@@ -17298,10 +17250,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="F476" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="G476" t="n">
         <v>2</v>
@@ -17327,10 +17279,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="F477" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17356,10 +17308,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="F478" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17385,10 +17337,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="F479" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17414,10 +17366,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="F480" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17443,10 +17395,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="F481" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17472,10 +17424,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="F482" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17501,10 +17453,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="F483" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17530,10 +17482,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="F484" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17559,10 +17511,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="F485" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17588,10 +17540,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="F486" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17617,10 +17569,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="F487" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17646,10 +17598,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="F488" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="G488" t="n">
         <v>3</v>
@@ -17675,10 +17627,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="F489" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17704,10 +17656,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="F490" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17733,10 +17685,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="F491" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17762,10 +17714,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="F492" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17791,10 +17743,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="F493" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="G493" t="n">
         <v>3</v>
@@ -17820,10 +17772,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="F494" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17849,10 +17801,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="F495" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17878,10 +17830,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="F496" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17907,10 +17859,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="F497" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17936,10 +17888,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="F498" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17965,10 +17917,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="F499" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17994,10 +17946,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="F500" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18023,10 +17975,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="F501" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18052,10 +18004,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="F502" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18081,10 +18033,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="F503" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18110,10 +18062,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="F504" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18139,10 +18091,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="F505" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18168,10 +18120,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="F506" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="G506" t="n">
         <v>2</v>
@@ -18197,10 +18149,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="F507" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18226,10 +18178,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="F508" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18255,10 +18207,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="F509" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18284,10 +18236,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="F510" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18313,10 +18265,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="F511" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18342,10 +18294,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="F512" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18371,10 +18323,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="F513" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18400,10 +18352,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="F514" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18429,10 +18381,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="F515" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18458,10 +18410,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="F516" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="G516" t="n">
         <v>2</v>
@@ -18487,10 +18439,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="F517" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18516,10 +18468,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="F518" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18545,10 +18497,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="F519" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18574,10 +18526,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="F520" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18603,10 +18555,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="F521" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18632,10 +18584,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="F522" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="G522" t="n">
         <v>3</v>
@@ -18661,10 +18613,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="F523" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18690,10 +18642,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="F524" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="G524" t="n">
         <v>5</v>
@@ -18719,10 +18671,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="F525" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18748,10 +18700,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="F526" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18777,10 +18729,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="F527" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18806,10 +18758,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="F528" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18835,10 +18787,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
       <c r="F529" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18864,10 +18816,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="F530" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="G530" t="n">
         <v>6</v>
@@ -18893,10 +18845,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="F531" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="G531" t="n">
         <v>3</v>
@@ -18922,10 +18874,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="F532" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18951,10 +18903,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="F533" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18980,10 +18932,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="F534" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19009,10 +18961,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="F535" t="s">
-        <v>966</v>
+        <v>897</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19038,10 +18990,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="F536" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19067,10 +19019,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="F537" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19096,10 +19048,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="F538" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19125,10 +19077,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="F539" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19154,10 +19106,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="F540" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="G540" t="n">
         <v>2</v>
@@ -19183,10 +19135,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="F541" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19212,10 +19164,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="F542" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19241,10 +19193,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="F543" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19270,10 +19222,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="F544" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19299,10 +19251,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="F545" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19328,10 +19280,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="F546" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19357,10 +19309,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="F547" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19386,10 +19338,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="F548" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G548" t="n">
         <v>4</v>
@@ -19415,10 +19367,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="F549" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19444,10 +19396,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="F550" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19473,10 +19425,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="F551" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19502,10 +19454,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="F552" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19531,10 +19483,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="F553" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19560,10 +19512,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
       <c r="F554" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19589,10 +19541,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="F555" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19618,10 +19570,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="F556" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
       <c r="G556" t="n">
         <v>2</v>
@@ -19647,10 +19599,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="F557" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19676,10 +19628,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
       <c r="F558" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19705,10 +19657,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="F559" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19734,10 +19686,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="F560" t="s">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19763,10 +19715,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
       <c r="F561" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19792,10 +19744,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
       <c r="F562" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19821,10 +19773,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="F563" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19850,10 +19802,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="F564" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
       <c r="G564" t="n">
         <v>2</v>
@@ -19879,10 +19831,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="F565" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -19908,10 +19860,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="F566" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -19937,10 +19889,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="F567" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -19966,10 +19918,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
       <c r="F568" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="G568" t="n">
         <v>3</v>
@@ -19995,10 +19947,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
       <c r="F569" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20024,10 +19976,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="F570" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20053,10 +20005,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="F571" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20082,10 +20034,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="F572" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20111,10 +20063,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="F573" t="s">
-        <v>1042</v>
+        <v>1026</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20140,10 +20092,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="F574" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20169,10 +20121,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1045</v>
+        <v>1029</v>
       </c>
       <c r="F575" t="s">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
